--- a/dataweb_limpio.xlsx
+++ b/dataweb_limpio.xlsx
@@ -489,13 +489,13 @@
         <v>9419446</v>
       </c>
       <c r="F2" t="n">
-        <v>9662795</v>
+        <v>9658138</v>
       </c>
       <c r="G2" t="n">
-        <v>9662795</v>
+        <v>9658138</v>
       </c>
       <c r="H2" t="n">
-        <v>32949364736</v>
+        <v>33109458944</v>
       </c>
     </row>
     <row r="3">

--- a/dataweb_limpio.xlsx
+++ b/dataweb_limpio.xlsx
@@ -489,13 +489,13 @@
         <v>10614491</v>
       </c>
       <c r="F2" t="n">
-        <v>10907100</v>
+        <v>10924409</v>
       </c>
       <c r="G2" t="n">
-        <v>10907100</v>
+        <v>10924409</v>
       </c>
       <c r="H2" t="n">
-        <v>63879237632</v>
+        <v>64438108160</v>
       </c>
     </row>
     <row r="3">

--- a/dataweb_limpio.xlsx
+++ b/dataweb_limpio.xlsx
@@ -483,19 +483,19 @@
         <v>10685383</v>
       </c>
       <c r="D2" t="n">
-        <v>10929877</v>
+        <v>10957358</v>
       </c>
       <c r="E2" t="n">
         <v>10614491</v>
       </c>
       <c r="F2" t="n">
-        <v>10924409</v>
+        <v>10957358</v>
       </c>
       <c r="G2" t="n">
-        <v>10924409</v>
+        <v>10957358</v>
       </c>
       <c r="H2" t="n">
-        <v>64438108160</v>
+        <v>65450070016</v>
       </c>
     </row>
     <row r="3">

--- a/dataweb_limpio.xlsx
+++ b/dataweb_limpio.xlsx
@@ -486,16 +486,16 @@
         <v>11176499</v>
       </c>
       <c r="E2" t="n">
-        <v>11123945</v>
+        <v>11126127</v>
       </c>
       <c r="F2" t="n">
-        <v>11123945</v>
+        <v>11158815</v>
       </c>
       <c r="G2" t="n">
-        <v>11123945</v>
+        <v>11158815</v>
       </c>
       <c r="H2" t="n">
-        <v>67713884160</v>
+        <v>67255726080</v>
       </c>
     </row>
     <row r="3">
